--- a/docentes/Caballero Rosas María Teresa - Estadisticos 2020.xlsx
+++ b/docentes/Caballero Rosas María Teresa - Estadisticos 2020.xlsx
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1131,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1154,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1292,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1338,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1384,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1430,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1453,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1476,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1499,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Caballero Rosas María Teresa - Estadisticos 2020.xlsx
+++ b/docentes/Caballero Rosas María Teresa - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>MARIANO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
   </si>
 </sst>
 </file>
@@ -788,7 +797,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -821,6 +830,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Caballero Rosas María Teresa - Estadisticos 2020.xlsx
+++ b/docentes/Caballero Rosas María Teresa - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Mat</t>
   </si>
@@ -73,10 +73,25 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>MARIANO</t>
   </si>
   <si>
-    <t>ANTONIO</t>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>ARANTZA</t>
   </si>
   <si>
     <t>JAQUELINE</t>
@@ -797,7 +812,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -832,25 +847,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920237</v>
+        <v>20330051920284</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
